--- a/public/ModeleStructure.xlsx
+++ b/public/ModeleStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angelo\Portail.Africa\onic\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{464D935D-77F0-46DE-9165-CDEBEBABE591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A866BA53-8142-4855-9223-8EB6DFC00ECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="7530" xr2:uid="{3A3644DB-B86E-4DD1-BC7F-1632A18CA0BD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>STRUCTURE</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>CONTACT</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
 </sst>
 </file>
@@ -89,12 +92,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B047F94-4026-4AF1-A658-83D6F35324C6}" name="Table3" displayName="Table3" ref="A1:C300" totalsRowShown="0">
-  <autoFilter ref="A1:C300" xr:uid="{4114AFC2-4329-40A2-BCC1-5A40464D255A}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B047F94-4026-4AF1-A658-83D6F35324C6}" name="Table3" displayName="Table3" ref="A1:D300" totalsRowShown="0">
+  <autoFilter ref="A1:D300" xr:uid="{4114AFC2-4329-40A2-BCC1-5A40464D255A}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{57332B51-85E4-42C8-8141-87FC2C1D83A7}" name="STRUCTURE"/>
     <tableColumn id="2" xr3:uid="{AE6C0D73-A3E3-44FD-979B-871DF62C73CD}" name="ADRESSE"/>
-    <tableColumn id="3" xr3:uid="{E0B2B318-DF50-4AA7-B410-44B405F9DCF4}" name="CONTACT"/>
+    <tableColumn id="4" xr3:uid="{4F324008-AC18-448C-9015-15BDAD44795F}" name="CONTACT"/>
+    <tableColumn id="3" xr3:uid="{E0B2B318-DF50-4AA7-B410-44B405F9DCF4}" name="TYPE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -397,20 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B144427F-2E83-47F4-8B77-FFD5111A7AB5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,6 +424,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
